--- a/ML_Spreadsheet.xlsx
+++ b/ML_Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleferro98/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleferro98/Documents/GitHub/LyriFont/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E0F18-9A93-494A-A65D-D3ED72A1A280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E20841-43A6-7E43-BDE9-FE6EAFF59086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>The Beatles - A Hard Day's Night.mp3</t>
   </si>
   <si>
-    <t>Basket Case.mp3</t>
-  </si>
-  <si>
-    <t>Learn to Fly.mp3</t>
+    <t>Britney Spears - Toxic.mp3</t>
+  </si>
+  <si>
+    <t>The White Stripes - Fell in Love With a Girl.mp3</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -374,7 +374,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -382,7 +382,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ML_Spreadsheet.xlsx
+++ b/ML_Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleferro98/Documents/GitHub/LyriFont/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15-CS2087NL\Documents\Uni\Polimi\a.a. 2023-2024\Creative Programming and Computing\Hackathon\LyriFont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E20841-43A6-7E43-BDE9-FE6EAFF59086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBA1014-472D-48DB-90FF-588479C61606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,13 @@
     <t>RubikDoodleShadow-Regular.ttf</t>
   </si>
   <si>
-    <t>The Beatles - A Hard Day's Night.mp3</t>
-  </si>
-  <si>
-    <t>Britney Spears - Toxic.mp3</t>
-  </si>
-  <si>
-    <t>The White Stripes - Fell in Love With a Girl.mp3</t>
+    <t>Alternative rock</t>
+  </si>
+  <si>
+    <t>British invasion</t>
+  </si>
+  <si>
+    <t>Dance pop</t>
   </si>
 </sst>
 </file>
@@ -97,8 +97,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -320,16 +320,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -337,7 +337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -345,7 +345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -353,7 +353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -361,28 +361,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ML_Spreadsheet.xlsx
+++ b/ML_Spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15-CS2087NL\Documents\Uni\Polimi\a.a. 2023-2024\Creative Programming and Computing\Hackathon\LyriFont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBA1014-472D-48DB-90FF-588479C61606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F0DA4-FBEE-4A51-B379-E814520111EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3984" yWindow="1872" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Silkscreen-Regular.ttf</t>
   </si>
   <si>
-    <t>RubikDoodleShadow-Regular.ttf</t>
-  </si>
-  <si>
     <t>Alternative rock</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>Dance pop</t>
+  </si>
+  <si>
+    <t>LondrinaSolid-Regular.ttf</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -366,7 +366,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -374,15 +374,15 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
